--- a/tests/TestData/Nopcomm_TS_All_Scenario.xlsx
+++ b/tests/TestData/Nopcomm_TS_All_Scenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training_Scripts\Playwright_Training_NewVersion\tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388E3B63-6FF2-4202-98E3-BE51951A16EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6AD379-5433-402B-B08C-8920B907E0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>test_case</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Login was unsuccessful. Please correct the errors and try again.No customer account found</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.The credentials provided are incorrect</t>
   </si>
 </sst>
 </file>
@@ -122,10 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,7 +441,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +449,7 @@
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -488,7 +494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -498,11 +504,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -512,11 +518,11 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -526,8 +532,8 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
